--- a/vedois/professores (importar)/Prof 4_horarios.xlsx
+++ b/vedois/professores (importar)/Prof 4_horarios.xlsx
@@ -563,9 +563,9 @@
           <t>13:30 - 14:25</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Redes de Computadores (SIN - 5º período)</t>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -580,9 +580,9 @@
           <t>14:25 - 15:20</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>Redes de Computadores (SIN - 5º período)</t>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -597,9 +597,9 @@
           <t>15:45 - 16:40</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>Redes de Computadores (SIN - 5º período)</t>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -614,9 +614,9 @@
           <t>16:40 - 17:35</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Redes de Computadores (SIN - 5º período)</t>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -631,9 +631,9 @@
           <t>17:35 - 18:30</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Auditoria e Segurança de Sistemas de Informação (SIN - 7º período)</t>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -648,9 +648,9 @@
           <t>19:00 - 19:50</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Redes de Computadores (SIN - 5º período)</t>
         </is>
       </c>
     </row>
@@ -665,9 +665,9 @@
           <t>19:50 - 20:40</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Redes de Computadores (SIN - 5º período)</t>
         </is>
       </c>
     </row>
@@ -682,9 +682,9 @@
           <t>21:00 - 21:50</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Redes de Computadores (SIN - 5º período)</t>
         </is>
       </c>
     </row>
@@ -699,9 +699,9 @@
           <t>21:50 - 22:40</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Redes de Computadores (SIN - 5º período)</t>
         </is>
       </c>
     </row>
@@ -818,9 +818,9 @@
           <t>13:30 - 14:25</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>Auditoria e Segurança de Sistemas de Informação (SIN - 7º período)</t>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -835,9 +835,9 @@
           <t>14:25 - 15:20</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>Auditoria e Segurança de Sistemas de Informação (SIN - 7º período)</t>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -852,9 +852,9 @@
           <t>15:45 - 16:40</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>Redes de Computadores (CCO - 5º período)</t>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -869,9 +869,9 @@
           <t>16:40 - 17:35</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>Redes de Computadores (CCO - 5º período)</t>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -903,9 +903,9 @@
           <t>19:00 - 19:50</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>Redes de Computadores (CCO - 5º período)</t>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -920,9 +920,9 @@
           <t>19:50 - 20:40</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>Redes de Computadores (CCO - 5º período)</t>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>livre</t>
         </is>
       </c>
     </row>
@@ -1192,9 +1192,9 @@
           <t>21:00 - 21:50</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>Auditoria e Segurança de Sistemas de Informação (SIN - 7º período)</t>
         </is>
       </c>
     </row>
@@ -1209,9 +1209,9 @@
           <t>21:50 - 22:40</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>Auditoria e Segurança de Sistemas de Informação (SIN - 7º período)</t>
         </is>
       </c>
     </row>
@@ -1481,9 +1481,9 @@
           <t>22:40 - 23:30</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>Auditoria e Segurança de Sistemas de Informação (SIN - 7º período)</t>
         </is>
       </c>
     </row>
@@ -1498,9 +1498,9 @@
           <t>07:00 - 07:55</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>Redes de Computadores (CCO - 5º período)</t>
         </is>
       </c>
     </row>
@@ -1515,9 +1515,9 @@
           <t>07:55 - 08:50</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>Redes de Computadores (CCO - 5º período)</t>
         </is>
       </c>
     </row>
@@ -1532,9 +1532,9 @@
           <t>08:50 - 09:45</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>Redes de Computadores (CCO - 5º período)</t>
         </is>
       </c>
     </row>
@@ -1549,9 +1549,9 @@
           <t>10:10 - 11:00</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>livre</t>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>Redes de Computadores (CCO - 5º período)</t>
         </is>
       </c>
     </row>
